--- a/inst/templates/sl_classes.xlsx
+++ b/inst/templates/sl_classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernhard/RPS/aquap2_R/aquap2/inst/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F768D9C-B849-714B-837C-6BBDCD1DF703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802108E7-FA3A-8245-B4C3-411CD06103A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17300" yWindow="5360" windowWidth="28020" windowHeight="20680" xr2:uid="{E07B27EB-60F4-584F-8CD6-B383153A1CD5}"/>
   </bookViews>
@@ -469,9 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CAD138-5EDB-C943-9CB8-0264B9DDB050}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
